--- a/baseimport/kugi.xlsx
+++ b/baseimport/kugi.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>категория</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>пистолет</t>
+  </si>
+  <si>
+    <t>индекс</t>
   </si>
 </sst>
 </file>
@@ -397,69 +400,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="27.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>2222</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>35424</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>5667888</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>99999999</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>6</v>
       </c>
     </row>

--- a/baseimport/kugi.xlsx
+++ b/baseimport/kugi.xlsx
@@ -16,30 +16,81 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>категория</t>
-  </si>
-  <si>
-    <t>цена</t>
-  </si>
-  <si>
-    <t>колличетсво</t>
-  </si>
-  <si>
-    <t>кукла</t>
-  </si>
-  <si>
-    <t>машина</t>
-  </si>
-  <si>
-    <t>дом</t>
-  </si>
-  <si>
-    <t>пистолет</t>
-  </si>
-  <si>
-    <t>индекс</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="25">
+  <si>
+    <t>Номер в реестре</t>
+  </si>
+  <si>
+    <t>Тип собственности</t>
+  </si>
+  <si>
+    <t>Тип помещения</t>
+  </si>
+  <si>
+    <t>Район</t>
+  </si>
+  <si>
+    <t>Площадь объекта</t>
+  </si>
+  <si>
+    <t>Государственная</t>
+  </si>
+  <si>
+    <t>Муниципальная</t>
+  </si>
+  <si>
+    <t>Частная</t>
+  </si>
+  <si>
+    <t>Торговое</t>
+  </si>
+  <si>
+    <t>Офисное</t>
+  </si>
+  <si>
+    <t>Складское</t>
+  </si>
+  <si>
+    <t>Производственное</t>
+  </si>
+  <si>
+    <t>Земельный участок</t>
+  </si>
+  <si>
+    <t>Заводский</t>
+  </si>
+  <si>
+    <t>Кировский</t>
+  </si>
+  <si>
+    <t>Ленинский</t>
+  </si>
+  <si>
+    <t>Рудничный</t>
+  </si>
+  <si>
+    <t>Центральный</t>
+  </si>
+  <si>
+    <t>5-15 кв.м.</t>
+  </si>
+  <si>
+    <t>15-30 кв.м.</t>
+  </si>
+  <si>
+    <t>30-50 кв.м.</t>
+  </si>
+  <si>
+    <t>50-70 кв.м.</t>
+  </si>
+  <si>
+    <t>70-100 кв.м.</t>
+  </si>
+  <si>
+    <t>100-250 кв.м.</t>
+  </si>
+  <si>
+    <t>свыше 250 кв.м.</t>
   </si>
 </sst>
 </file>
@@ -69,7 +120,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -92,13 +143,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -400,90 +463,889 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="27.5703125" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>2222</v>
-      </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>35424</v>
-      </c>
-      <c r="D3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>5667888</v>
-      </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="C5">
-        <v>99999999</v>
-      </c>
-      <c r="D5">
+      <c r="B7" t="s">
         <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
